--- a/Data/Output/Question1.xlsx
+++ b/Data/Output/Question1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shireen.M\Documents\UiPath\Shireen_Day_3\Data\Output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Documents\UiPath\Shireen_Day_3_1\Data\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0F58DE6-DB9D-42A2-9BC7-4606619E177E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{657A6460-3290-435A-B863-E3FD9C71E08E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Personal" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="345">
   <si>
     <t>Fname</t>
   </si>
@@ -474,13 +474,385 @@
     <t>Days</t>
   </si>
   <si>
-    <t>Emp_ID_1</t>
+    <t>Emp_ID_1_1</t>
   </si>
   <si>
     <t>Days_1</t>
   </si>
   <si>
-    <t>Emp_ID_1_1</t>
+    <t>Ramon</t>
+  </si>
+  <si>
+    <t>Maggie</t>
+  </si>
+  <si>
+    <t>Dan</t>
+  </si>
+  <si>
+    <t>Perez</t>
+  </si>
+  <si>
+    <t>Jessie</t>
+  </si>
+  <si>
+    <t>Knight</t>
+  </si>
+  <si>
+    <t>Whitney</t>
+  </si>
+  <si>
+    <t>Ethan</t>
+  </si>
+  <si>
+    <t>Mcdonald</t>
+  </si>
+  <si>
+    <t>Loretta</t>
+  </si>
+  <si>
+    <t>Davis</t>
+  </si>
+  <si>
+    <t>Amanda</t>
+  </si>
+  <si>
+    <t>Watkins</t>
+  </si>
+  <si>
+    <t>Janessa</t>
+  </si>
+  <si>
+    <t>Graham</t>
+  </si>
+  <si>
+    <t>Marshall</t>
+  </si>
+  <si>
+    <t>Stephens</t>
+  </si>
+  <si>
+    <t>Kathryn</t>
+  </si>
+  <si>
+    <t>Albert</t>
+  </si>
+  <si>
+    <t>Howell</t>
+  </si>
+  <si>
+    <t>Lucy</t>
+  </si>
+  <si>
+    <t>Morgan</t>
+  </si>
+  <si>
+    <t>Claude</t>
+  </si>
+  <si>
+    <t>Paul</t>
+  </si>
+  <si>
+    <t>Melody</t>
+  </si>
+  <si>
+    <t>Anderson</t>
+  </si>
+  <si>
+    <t>Brandi</t>
+  </si>
+  <si>
+    <t>Skyla</t>
+  </si>
+  <si>
+    <t>Wiley</t>
+  </si>
+  <si>
+    <t>Ramirez</t>
+  </si>
+  <si>
+    <t>Laverne</t>
+  </si>
+  <si>
+    <t>Ellis</t>
+  </si>
+  <si>
+    <t>Lucia</t>
+  </si>
+  <si>
+    <t>Martinez</t>
+  </si>
+  <si>
+    <t>Tristin</t>
+  </si>
+  <si>
+    <t>Marlin</t>
+  </si>
+  <si>
+    <t>Jenkins</t>
+  </si>
+  <si>
+    <t>Arthur</t>
+  </si>
+  <si>
+    <t>Kimmel</t>
+  </si>
+  <si>
+    <t>Desiree</t>
+  </si>
+  <si>
+    <t>Gibson</t>
+  </si>
+  <si>
+    <t>Christopher</t>
+  </si>
+  <si>
+    <t>Valentine</t>
+  </si>
+  <si>
+    <t>Joshua</t>
+  </si>
+  <si>
+    <t>Rick</t>
+  </si>
+  <si>
+    <t>Rice</t>
+  </si>
+  <si>
+    <t>Riley</t>
+  </si>
+  <si>
+    <t>Keith</t>
+  </si>
+  <si>
+    <t>Wood</t>
+  </si>
+  <si>
+    <t>Bennett</t>
+  </si>
+  <si>
+    <t>Julian</t>
+  </si>
+  <si>
+    <t>Roberto</t>
+  </si>
+  <si>
+    <t>Ted</t>
+  </si>
+  <si>
+    <t>Wagner</t>
+  </si>
+  <si>
+    <t>Leach</t>
+  </si>
+  <si>
+    <t>Harold</t>
+  </si>
+  <si>
+    <t>Gentry</t>
+  </si>
+  <si>
+    <t>Luka</t>
+  </si>
+  <si>
+    <t>Phillips</t>
+  </si>
+  <si>
+    <t>Jaime</t>
+  </si>
+  <si>
+    <t>Noble</t>
+  </si>
+  <si>
+    <t>Claudia</t>
+  </si>
+  <si>
+    <t>Douglas</t>
+  </si>
+  <si>
+    <t>Vera</t>
+  </si>
+  <si>
+    <t>Nelson</t>
+  </si>
+  <si>
+    <t>Lesley</t>
+  </si>
+  <si>
+    <t>Tucker</t>
+  </si>
+  <si>
+    <t>Traci</t>
+  </si>
+  <si>
+    <t>Luna</t>
+  </si>
+  <si>
+    <t>Erickson</t>
+  </si>
+  <si>
+    <t>Dave</t>
+  </si>
+  <si>
+    <t>Allen</t>
+  </si>
+  <si>
+    <t>Nick</t>
+  </si>
+  <si>
+    <t>Mosby</t>
+  </si>
+  <si>
+    <t>Chrysta</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>Troy</t>
+  </si>
+  <si>
+    <t>Crawford</t>
+  </si>
+  <si>
+    <t>Butler</t>
+  </si>
+  <si>
+    <t>Carlos</t>
+  </si>
+  <si>
+    <t>Bryant</t>
+  </si>
+  <si>
+    <t>Charlie</t>
+  </si>
+  <si>
+    <t>Gomez</t>
+  </si>
+  <si>
+    <t>Isabel</t>
+  </si>
+  <si>
+    <t>Thomas</t>
+  </si>
+  <si>
+    <t>Leona</t>
+  </si>
+  <si>
+    <t>Holland</t>
+  </si>
+  <si>
+    <t>Knowles</t>
+  </si>
+  <si>
+    <t>Bethany</t>
+  </si>
+  <si>
+    <t>Warren</t>
+  </si>
+  <si>
+    <t>Kayleigh</t>
+  </si>
+  <si>
+    <t>Kimberly</t>
+  </si>
+  <si>
+    <t>Mark</t>
+  </si>
+  <si>
+    <t>Dudley</t>
+  </si>
+  <si>
+    <t>Carolina</t>
+  </si>
+  <si>
+    <t>Rodriguez</t>
+  </si>
+  <si>
+    <t>Angelique</t>
+  </si>
+  <si>
+    <t>Moody</t>
+  </si>
+  <si>
+    <t>Nicole</t>
+  </si>
+  <si>
+    <t>Parks</t>
+  </si>
+  <si>
+    <t>Wade</t>
+  </si>
+  <si>
+    <t>Hall</t>
+  </si>
+  <si>
+    <t>Harvey</t>
+  </si>
+  <si>
+    <t>Hamilton</t>
+  </si>
+  <si>
+    <t>Silvia</t>
+  </si>
+  <si>
+    <t>Shane</t>
+  </si>
+  <si>
+    <t>Camille</t>
+  </si>
+  <si>
+    <t>Lewis</t>
+  </si>
+  <si>
+    <t>Alison</t>
+  </si>
+  <si>
+    <t>Wheeler</t>
+  </si>
+  <si>
+    <t>Molly</t>
+  </si>
+  <si>
+    <t>Richards</t>
+  </si>
+  <si>
+    <t>Odessa</t>
+  </si>
+  <si>
+    <t>Aidan</t>
+  </si>
+  <si>
+    <t>Rosie</t>
+  </si>
+  <si>
+    <t>Stephanie</t>
+  </si>
+  <si>
+    <t>Stanley</t>
+  </si>
+  <si>
+    <t>Romeo</t>
+  </si>
+  <si>
+    <t>Roberts</t>
+  </si>
+  <si>
+    <t>Lucille</t>
+  </si>
+  <si>
+    <t>Matthews</t>
+  </si>
+  <si>
+    <t>Jerry</t>
+  </si>
+  <si>
+    <t>Lara</t>
+  </si>
+  <si>
+    <t>Phoebe</t>
+  </si>
+  <si>
+    <t>Norman</t>
   </si>
   <si>
     <t>Conner</t>
@@ -489,9 +861,6 @@
     <t>Antonio</t>
   </si>
   <si>
-    <t>Graham</t>
-  </si>
-  <si>
     <t>Julie</t>
   </si>
   <si>
@@ -555,9 +924,6 @@
     <t>Liam</t>
   </si>
   <si>
-    <t>Warren</t>
-  </si>
-  <si>
     <t>Craig</t>
   </si>
   <si>
@@ -576,9 +942,6 @@
     <t>Milton</t>
   </si>
   <si>
-    <t>Ellis</t>
-  </si>
-  <si>
     <t>Sophia</t>
   </si>
   <si>
@@ -597,18 +960,12 @@
     <t>Eunice</t>
   </si>
   <si>
-    <t>Butler</t>
-  </si>
-  <si>
     <t>Janine</t>
   </si>
   <si>
     <t>Evans</t>
   </si>
   <si>
-    <t>Tucker</t>
-  </si>
-  <si>
     <t>Blanca</t>
   </si>
   <si>
@@ -621,9 +978,6 @@
     <t>Cara</t>
   </si>
   <si>
-    <t>Hamilton</t>
-  </si>
-  <si>
     <t>Angela</t>
   </si>
   <si>
@@ -648,9 +1002,6 @@
     <t>Francesca</t>
   </si>
   <si>
-    <t>Allen</t>
-  </si>
-  <si>
     <t>Victor</t>
   </si>
   <si>
@@ -669,9 +1020,6 @@
     <t>Hope</t>
   </si>
   <si>
-    <t>Bryant</t>
-  </si>
-  <si>
     <t>Gemma</t>
   </si>
   <si>
@@ -699,19 +1047,10 @@
     <t>Kianna</t>
   </si>
   <si>
-    <t>Crawford</t>
-  </si>
-  <si>
     <t>Alisa</t>
   </si>
   <si>
-    <t>Gomez</t>
-  </si>
-  <si>
     <t>Aaron</t>
-  </si>
-  <si>
-    <t>Matthews</t>
   </si>
   <si>
     <t>Monique</t>
@@ -1065,9 +1404,9 @@
       <selection activeCell="G6" sqref="G6 A1:G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1075,7 +1414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1096,9 +1435,9 @@
       <selection activeCell="E13" sqref="E13 A1:E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -1115,7 +1454,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1330</v>
       </c>
@@ -1132,7 +1471,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>4620</v>
       </c>
@@ -1149,7 +1488,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>4350</v>
       </c>
@@ -1166,7 +1505,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>6959</v>
       </c>
@@ -1183,7 +1522,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>4476</v>
       </c>
@@ -1200,7 +1539,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>9401</v>
       </c>
@@ -1217,7 +1556,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>5562</v>
       </c>
@@ -1234,7 +1573,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>6414</v>
       </c>
@@ -1251,7 +1590,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>4046</v>
       </c>
@@ -1279,9 +1618,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>1183</v>
       </c>
@@ -1295,7 +1634,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1330</v>
       </c>
@@ -1309,7 +1648,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1395</v>
       </c>
@@ -1323,7 +1662,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1694</v>
       </c>
@@ -1337,7 +1676,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1716</v>
       </c>
@@ -1351,7 +1690,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1824</v>
       </c>
@@ -1365,7 +1704,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2314</v>
       </c>
@@ -1379,7 +1718,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2367</v>
       </c>
@@ -1393,7 +1732,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2519</v>
       </c>
@@ -1407,7 +1746,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2600</v>
       </c>
@@ -1421,7 +1760,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2736</v>
       </c>
@@ -1435,7 +1774,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>3023</v>
       </c>
@@ -1449,7 +1788,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>3041</v>
       </c>
@@ -1463,7 +1802,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>3471</v>
       </c>
@@ -1477,7 +1816,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>3481</v>
       </c>
@@ -1491,7 +1830,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>3598</v>
       </c>
@@ -1505,7 +1844,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>3622</v>
       </c>
@@ -1519,7 +1858,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>3636</v>
       </c>
@@ -1533,7 +1872,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>3686</v>
       </c>
@@ -1547,7 +1886,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>3882</v>
       </c>
@@ -1561,7 +1900,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>4004</v>
       </c>
@@ -1575,7 +1914,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>4046</v>
       </c>
@@ -1589,7 +1928,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>4119</v>
       </c>
@@ -1603,7 +1942,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>4406</v>
       </c>
@@ -1617,7 +1956,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>4476</v>
       </c>
@@ -1631,7 +1970,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>4519</v>
       </c>
@@ -1645,7 +1984,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>4620</v>
       </c>
@@ -1659,7 +1998,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>4838</v>
       </c>
@@ -1673,7 +2012,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>4949</v>
       </c>
@@ -1687,7 +2026,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>4971</v>
       </c>
@@ -1701,7 +2040,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>5188</v>
       </c>
@@ -1715,7 +2054,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>5345</v>
       </c>
@@ -1729,7 +2068,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>5682</v>
       </c>
@@ -1743,7 +2082,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>5757</v>
       </c>
@@ -1757,7 +2096,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>5956</v>
       </c>
@@ -1771,7 +2110,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>6214</v>
       </c>
@@ -1785,7 +2124,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>6354</v>
       </c>
@@ -1799,7 +2138,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>6412</v>
       </c>
@@ -1813,7 +2152,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>6425</v>
       </c>
@@ -1827,7 +2166,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>6549</v>
       </c>
@@ -1841,7 +2180,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>6566</v>
       </c>
@@ -1855,7 +2194,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>6642</v>
       </c>
@@ -1869,7 +2208,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>6693</v>
       </c>
@@ -1883,7 +2222,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>6735</v>
       </c>
@@ -1897,7 +2236,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>6741</v>
       </c>
@@ -1911,7 +2250,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>6774</v>
       </c>
@@ -1925,7 +2264,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>6937</v>
       </c>
@@ -1939,7 +2278,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>7042</v>
       </c>
@@ -1953,7 +2292,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>7076</v>
       </c>
@@ -1967,7 +2306,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>7547</v>
       </c>
@@ -1981,7 +2320,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>7750</v>
       </c>
@@ -1995,7 +2334,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>7871</v>
       </c>
@@ -2009,7 +2348,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>7876</v>
       </c>
@@ -2023,7 +2362,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>7971</v>
       </c>
@@ -2037,7 +2376,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>7975</v>
       </c>
@@ -2051,7 +2390,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>8151</v>
       </c>
@@ -2065,7 +2404,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>8417</v>
       </c>
@@ -2079,7 +2418,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>8446</v>
       </c>
@@ -2093,7 +2432,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>8453</v>
       </c>
@@ -2107,7 +2446,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>8626</v>
       </c>
@@ -2121,7 +2460,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>8660</v>
       </c>
@@ -2135,7 +2474,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>8860</v>
       </c>
@@ -2149,7 +2488,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>9002</v>
       </c>
@@ -2163,7 +2502,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>9223</v>
       </c>
@@ -2177,7 +2516,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>9374</v>
       </c>
@@ -2191,7 +2530,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>9396</v>
       </c>
@@ -2205,7 +2544,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>9401</v>
       </c>
@@ -2219,7 +2558,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>9523</v>
       </c>
@@ -2240,192 +2579,140 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I137"/>
+  <dimension ref="A1:F116"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
         <v>148</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>149</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>150</v>
       </c>
-      <c r="E1" t="s">
-        <v>148</v>
-      </c>
-      <c r="F1" t="s">
-        <v>151</v>
-      </c>
-      <c r="G1" t="s">
-        <v>150</v>
-      </c>
-      <c r="H1" t="s">
-        <v>151</v>
-      </c>
-      <c r="I1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1183</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
       </c>
       <c r="C2">
         <v>1183</v>
       </c>
       <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1183</v>
+      </c>
+      <c r="F2">
         <v>3</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1183</v>
-      </c>
-      <c r="G2">
-        <v>3</v>
-      </c>
-      <c r="H2">
-        <v>1183</v>
-      </c>
-      <c r="I2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1330</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
       </c>
       <c r="C3">
         <v>1330</v>
       </c>
       <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1330</v>
+      </c>
+      <c r="F3">
         <v>3</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1330</v>
-      </c>
-      <c r="G3">
-        <v>3</v>
-      </c>
-      <c r="H3">
-        <v>1330</v>
-      </c>
-      <c r="I3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1334</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B4" t="s">
+        <v>90</v>
       </c>
       <c r="C4">
         <v>1334</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1334</v>
       </c>
       <c r="F4">
-        <v>1334</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>1334</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1636</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
       </c>
       <c r="C5">
         <v>1636</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>1636</v>
       </c>
       <c r="F5">
-        <v>1636</v>
-      </c>
-      <c r="G5">
-        <v>2</v>
-      </c>
-      <c r="H5">
-        <v>1636</v>
-      </c>
-      <c r="I5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1694</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
       </c>
       <c r="C6">
         <v>1694</v>
       </c>
       <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>1694</v>
+      </c>
+      <c r="F6">
         <v>3</v>
       </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>1694</v>
-      </c>
-      <c r="G6">
-        <v>3</v>
-      </c>
-      <c r="H6">
-        <v>1694</v>
-      </c>
-      <c r="I6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1852</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B7" t="s">
+        <v>154</v>
       </c>
       <c r="C7">
         <v>1852</v>
@@ -2434,85 +2721,58 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>1852</v>
       </c>
       <c r="F7">
-        <v>1852</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>1852</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2140</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>155</v>
+      </c>
+      <c r="B8" t="s">
+        <v>156</v>
       </c>
       <c r="C8">
         <v>2140</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2140</v>
       </c>
       <c r="F8">
-        <v>2140</v>
-      </c>
-      <c r="G8">
-        <v>2</v>
-      </c>
-      <c r="H8">
-        <v>2140</v>
-      </c>
-      <c r="I8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2254</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>157</v>
+      </c>
+      <c r="B9" t="s">
+        <v>47</v>
       </c>
       <c r="C9">
         <v>2254</v>
       </c>
       <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>2254</v>
+      </c>
+      <c r="F9">
         <v>3</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>2254</v>
-      </c>
-      <c r="G9">
-        <v>3</v>
-      </c>
-      <c r="H9">
-        <v>2254</v>
-      </c>
-      <c r="I9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>2314</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
       </c>
       <c r="C10">
         <v>2314</v>
@@ -2521,114 +2781,78 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2314</v>
       </c>
       <c r="F10">
-        <v>2314</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>2314</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>2519</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
       </c>
       <c r="C11">
         <v>2519</v>
       </c>
       <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>2519</v>
+      </c>
+      <c r="F11">
         <v>3</v>
       </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>2519</v>
-      </c>
-      <c r="G11">
-        <v>3</v>
-      </c>
-      <c r="H11">
-        <v>2519</v>
-      </c>
-      <c r="I11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>2554</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>158</v>
+      </c>
+      <c r="B12" t="s">
+        <v>159</v>
       </c>
       <c r="C12">
         <v>2554</v>
       </c>
       <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>2554</v>
+      </c>
+      <c r="F12">
         <v>3</v>
       </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>2554</v>
-      </c>
-      <c r="G12">
-        <v>3</v>
-      </c>
-      <c r="H12">
-        <v>2554</v>
-      </c>
-      <c r="I12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>2669</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>160</v>
+      </c>
+      <c r="B13" t="s">
+        <v>161</v>
       </c>
       <c r="C13">
         <v>2669</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>2669</v>
       </c>
       <c r="F13">
-        <v>2669</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>2669</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>2818</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>162</v>
+      </c>
+      <c r="B14" t="s">
+        <v>163</v>
       </c>
       <c r="C14">
         <v>2818</v>
@@ -2637,172 +2861,118 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2818</v>
       </c>
       <c r="F14">
-        <v>2818</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>2818</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>2836</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>164</v>
+      </c>
+      <c r="B15" t="s">
+        <v>165</v>
       </c>
       <c r="C15">
         <v>2836</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2836</v>
       </c>
       <c r="F15">
-        <v>2836</v>
-      </c>
-      <c r="G15">
-        <v>2</v>
-      </c>
-      <c r="H15">
-        <v>2836</v>
-      </c>
-      <c r="I15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>2941</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>166</v>
+      </c>
+      <c r="B16" t="s">
+        <v>167</v>
       </c>
       <c r="C16">
         <v>2941</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2941</v>
       </c>
       <c r="F16">
-        <v>2941</v>
-      </c>
-      <c r="G16">
-        <v>2</v>
-      </c>
-      <c r="H16">
-        <v>2941</v>
-      </c>
-      <c r="I16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>2972</v>
-      </c>
-      <c r="B17">
-        <v>2</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>168</v>
+      </c>
+      <c r="B17" t="s">
+        <v>51</v>
       </c>
       <c r="C17">
         <v>2972</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>2972</v>
       </c>
       <c r="F17">
-        <v>2972</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="H17">
-        <v>2972</v>
-      </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>3023</v>
-      </c>
-      <c r="B18">
-        <v>2</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" t="s">
+        <v>49</v>
       </c>
       <c r="C18">
         <v>3023</v>
       </c>
       <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>3023</v>
+      </c>
+      <c r="F18">
         <v>3</v>
       </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="F18">
-        <v>3023</v>
-      </c>
-      <c r="G18">
-        <v>3</v>
-      </c>
-      <c r="H18">
-        <v>3023</v>
-      </c>
-      <c r="I18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>3059</v>
-      </c>
-      <c r="B19">
-        <v>2</v>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>169</v>
+      </c>
+      <c r="B19" t="s">
+        <v>170</v>
       </c>
       <c r="C19">
         <v>3059</v>
       </c>
       <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>3059</v>
+      </c>
+      <c r="F19">
         <v>3</v>
       </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="F19">
-        <v>3059</v>
-      </c>
-      <c r="G19">
-        <v>3</v>
-      </c>
-      <c r="H19">
-        <v>3059</v>
-      </c>
-      <c r="I19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>3250</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>171</v>
+      </c>
+      <c r="B20" t="s">
+        <v>172</v>
       </c>
       <c r="C20">
         <v>3250</v>
@@ -2811,56 +2981,38 @@
         <v>1</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3250</v>
       </c>
       <c r="F20">
-        <v>3250</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="H20">
-        <v>3250</v>
-      </c>
-      <c r="I20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>3299</v>
-      </c>
-      <c r="B21">
-        <v>2</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>173</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
       </c>
       <c r="C21">
         <v>3299</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>3299</v>
       </c>
       <c r="F21">
-        <v>3299</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-      <c r="H21">
-        <v>3299</v>
-      </c>
-      <c r="I21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>3481</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" t="s">
+        <v>55</v>
       </c>
       <c r="C22">
         <v>3481</v>
@@ -2869,230 +3021,158 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3481</v>
       </c>
       <c r="F22">
-        <v>3481</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-      <c r="H22">
-        <v>3481</v>
-      </c>
-      <c r="I22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>3598</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" t="s">
+        <v>57</v>
       </c>
       <c r="C23">
         <v>3598</v>
       </c>
       <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>3598</v>
+      </c>
+      <c r="F23">
         <v>3</v>
       </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>3598</v>
-      </c>
-      <c r="G23">
-        <v>3</v>
-      </c>
-      <c r="H23">
-        <v>3598</v>
-      </c>
-      <c r="I23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>3644</v>
-      </c>
-      <c r="B24">
-        <v>2</v>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>174</v>
+      </c>
+      <c r="B24" t="s">
+        <v>163</v>
       </c>
       <c r="C24">
         <v>3644</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>3644</v>
       </c>
       <c r="F24">
-        <v>3644</v>
-      </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
-      <c r="H24">
-        <v>3644</v>
-      </c>
-      <c r="I24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>3686</v>
-      </c>
-      <c r="B25">
-        <v>2</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" t="s">
+        <v>63</v>
       </c>
       <c r="C25">
         <v>3686</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>3686</v>
       </c>
       <c r="F25">
-        <v>3686</v>
-      </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-      <c r="H25">
-        <v>3686</v>
-      </c>
-      <c r="I25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>3808</v>
-      </c>
-      <c r="B26">
-        <v>1</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>175</v>
+      </c>
+      <c r="B26" t="s">
+        <v>176</v>
       </c>
       <c r="C26">
         <v>3808</v>
       </c>
       <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>3808</v>
+      </c>
+      <c r="F26">
         <v>3</v>
       </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>3808</v>
-      </c>
-      <c r="G26">
-        <v>3</v>
-      </c>
-      <c r="H26">
-        <v>3808</v>
-      </c>
-      <c r="I26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>3854</v>
-      </c>
-      <c r="B27">
-        <v>2</v>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>177</v>
+      </c>
+      <c r="B27" t="s">
+        <v>53</v>
       </c>
       <c r="C27">
         <v>3854</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>3854</v>
       </c>
       <c r="F27">
-        <v>3854</v>
-      </c>
-      <c r="G27">
-        <v>1</v>
-      </c>
-      <c r="H27">
-        <v>3854</v>
-      </c>
-      <c r="I27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>4004</v>
-      </c>
-      <c r="B28">
-        <v>2</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" t="s">
+        <v>67</v>
       </c>
       <c r="C28">
         <v>4004</v>
       </c>
       <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>4004</v>
+      </c>
+      <c r="F28">
         <v>3</v>
       </c>
-      <c r="E28">
-        <v>2</v>
-      </c>
-      <c r="F28">
-        <v>4004</v>
-      </c>
-      <c r="G28">
-        <v>3</v>
-      </c>
-      <c r="H28">
-        <v>4004</v>
-      </c>
-      <c r="I28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>4046</v>
-      </c>
-      <c r="B29">
-        <v>2</v>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>28</v>
       </c>
       <c r="C29">
         <v>4046</v>
       </c>
       <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <v>4046</v>
+      </c>
+      <c r="F29">
         <v>3</v>
       </c>
-      <c r="E29">
-        <v>2</v>
-      </c>
-      <c r="F29">
-        <v>4046</v>
-      </c>
-      <c r="G29">
-        <v>3</v>
-      </c>
-      <c r="H29">
-        <v>4046</v>
-      </c>
-      <c r="I29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>4195</v>
-      </c>
-      <c r="B30">
-        <v>1</v>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>178</v>
+      </c>
+      <c r="B30" t="s">
+        <v>105</v>
       </c>
       <c r="C30">
         <v>4195</v>
@@ -3101,85 +3181,58 @@
         <v>1</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>4195</v>
       </c>
       <c r="F30">
-        <v>4195</v>
-      </c>
-      <c r="G30">
-        <v>1</v>
-      </c>
-      <c r="H30">
-        <v>4195</v>
-      </c>
-      <c r="I30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>4243</v>
-      </c>
-      <c r="B31">
-        <v>1</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>179</v>
+      </c>
+      <c r="B31" t="s">
+        <v>180</v>
       </c>
       <c r="C31">
         <v>4243</v>
       </c>
       <c r="D31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>4243</v>
       </c>
       <c r="F31">
-        <v>4243</v>
-      </c>
-      <c r="G31">
-        <v>2</v>
-      </c>
-      <c r="H31">
-        <v>4243</v>
-      </c>
-      <c r="I31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>4354</v>
-      </c>
-      <c r="B32">
-        <v>1</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>181</v>
+      </c>
+      <c r="B32" t="s">
+        <v>182</v>
       </c>
       <c r="C32">
         <v>4354</v>
       </c>
       <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>4354</v>
+      </c>
+      <c r="F32">
         <v>3</v>
       </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32">
-        <v>4354</v>
-      </c>
-      <c r="G32">
-        <v>3</v>
-      </c>
-      <c r="H32">
-        <v>4354</v>
-      </c>
-      <c r="I32">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>4393</v>
-      </c>
-      <c r="B33">
-        <v>1</v>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>183</v>
+      </c>
+      <c r="B33" t="s">
+        <v>184</v>
       </c>
       <c r="C33">
         <v>4393</v>
@@ -3188,27 +3241,18 @@
         <v>1</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>4393</v>
       </c>
       <c r="F33">
-        <v>4393</v>
-      </c>
-      <c r="G33">
-        <v>1</v>
-      </c>
-      <c r="H33">
-        <v>4393</v>
-      </c>
-      <c r="I33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>4519</v>
-      </c>
-      <c r="B34">
-        <v>1</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34" t="s">
+        <v>72</v>
       </c>
       <c r="C34">
         <v>4519</v>
@@ -3217,85 +3261,58 @@
         <v>1</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>4519</v>
       </c>
       <c r="F34">
-        <v>4519</v>
-      </c>
-      <c r="G34">
-        <v>1</v>
-      </c>
-      <c r="H34">
-        <v>4519</v>
-      </c>
-      <c r="I34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>4703</v>
-      </c>
-      <c r="B35">
-        <v>2</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>185</v>
+      </c>
+      <c r="B35" t="s">
+        <v>22</v>
       </c>
       <c r="C35">
         <v>4703</v>
       </c>
       <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35">
+        <v>4703</v>
+      </c>
+      <c r="F35">
         <v>3</v>
       </c>
-      <c r="E35">
-        <v>2</v>
-      </c>
-      <c r="F35">
-        <v>4703</v>
-      </c>
-      <c r="G35">
-        <v>3</v>
-      </c>
-      <c r="H35">
-        <v>4703</v>
-      </c>
-      <c r="I35">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>4807</v>
-      </c>
-      <c r="B36">
-        <v>1</v>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>186</v>
+      </c>
+      <c r="B36" t="s">
+        <v>187</v>
       </c>
       <c r="C36">
         <v>4807</v>
       </c>
       <c r="D36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>4807</v>
       </c>
       <c r="F36">
-        <v>4807</v>
-      </c>
-      <c r="G36">
-        <v>2</v>
-      </c>
-      <c r="H36">
-        <v>4807</v>
-      </c>
-      <c r="I36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>4838</v>
-      </c>
-      <c r="B37">
-        <v>2</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>73</v>
+      </c>
+      <c r="B37" t="s">
+        <v>74</v>
       </c>
       <c r="C37">
         <v>4838</v>
@@ -3304,143 +3321,98 @@
         <v>2</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>4838</v>
       </c>
       <c r="F37">
-        <v>4838</v>
-      </c>
-      <c r="G37">
-        <v>2</v>
-      </c>
-      <c r="H37">
-        <v>4838</v>
-      </c>
-      <c r="I37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>4949</v>
-      </c>
-      <c r="B38">
-        <v>2</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B38" t="s">
+        <v>76</v>
       </c>
       <c r="C38">
         <v>4949</v>
       </c>
       <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38">
+        <v>4949</v>
+      </c>
+      <c r="F38">
         <v>3</v>
       </c>
-      <c r="E38">
-        <v>2</v>
-      </c>
-      <c r="F38">
-        <v>4949</v>
-      </c>
-      <c r="G38">
-        <v>3</v>
-      </c>
-      <c r="H38">
-        <v>4949</v>
-      </c>
-      <c r="I38">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>5188</v>
-      </c>
-      <c r="B39">
-        <v>1</v>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>79</v>
+      </c>
+      <c r="B39" t="s">
+        <v>80</v>
       </c>
       <c r="C39">
         <v>5188</v>
       </c>
       <c r="D39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>5188</v>
       </c>
       <c r="F39">
-        <v>5188</v>
-      </c>
-      <c r="G39">
-        <v>2</v>
-      </c>
-      <c r="H39">
-        <v>5188</v>
-      </c>
-      <c r="I39">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>5251</v>
-      </c>
-      <c r="B40">
-        <v>1</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>188</v>
+      </c>
+      <c r="B40" t="s">
+        <v>189</v>
       </c>
       <c r="C40">
         <v>5251</v>
       </c>
       <c r="D40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>5251</v>
       </c>
       <c r="F40">
-        <v>5251</v>
-      </c>
-      <c r="G40">
-        <v>2</v>
-      </c>
-      <c r="H40">
-        <v>5251</v>
-      </c>
-      <c r="I40">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>5264</v>
-      </c>
-      <c r="B41">
-        <v>2</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>190</v>
+      </c>
+      <c r="B41" t="s">
+        <v>191</v>
       </c>
       <c r="C41">
         <v>5264</v>
       </c>
       <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41">
+        <v>5264</v>
+      </c>
+      <c r="F41">
         <v>3</v>
       </c>
-      <c r="E41">
-        <v>2</v>
-      </c>
-      <c r="F41">
-        <v>5264</v>
-      </c>
-      <c r="G41">
-        <v>3</v>
-      </c>
-      <c r="H41">
-        <v>5264</v>
-      </c>
-      <c r="I41">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>5276</v>
-      </c>
-      <c r="B42">
-        <v>2</v>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>192</v>
+      </c>
+      <c r="B42" t="s">
+        <v>193</v>
       </c>
       <c r="C42">
         <v>5276</v>
@@ -3449,27 +3421,18 @@
         <v>2</v>
       </c>
       <c r="E42">
-        <v>2</v>
+        <v>5276</v>
       </c>
       <c r="F42">
-        <v>5276</v>
-      </c>
-      <c r="G42">
-        <v>2</v>
-      </c>
-      <c r="H42">
-        <v>5276</v>
-      </c>
-      <c r="I42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>5296</v>
-      </c>
-      <c r="B43">
-        <v>1</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>194</v>
+      </c>
+      <c r="B43" t="s">
+        <v>136</v>
       </c>
       <c r="C43">
         <v>5296</v>
@@ -3478,114 +3441,78 @@
         <v>1</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>5296</v>
       </c>
       <c r="F43">
-        <v>5296</v>
-      </c>
-      <c r="G43">
-        <v>1</v>
-      </c>
-      <c r="H43">
-        <v>5296</v>
-      </c>
-      <c r="I43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>5345</v>
-      </c>
-      <c r="B44">
-        <v>2</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>81</v>
+      </c>
+      <c r="B44" t="s">
+        <v>82</v>
       </c>
       <c r="C44">
         <v>5345</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E44">
-        <v>2</v>
+        <v>5345</v>
       </c>
       <c r="F44">
-        <v>5345</v>
-      </c>
-      <c r="G44">
-        <v>1</v>
-      </c>
-      <c r="H44">
-        <v>5345</v>
-      </c>
-      <c r="I44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>5411</v>
-      </c>
-      <c r="B45">
-        <v>2</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>195</v>
+      </c>
+      <c r="B45" t="s">
+        <v>196</v>
       </c>
       <c r="C45">
         <v>5411</v>
       </c>
       <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45">
+        <v>5411</v>
+      </c>
+      <c r="F45">
         <v>3</v>
       </c>
-      <c r="E45">
-        <v>2</v>
-      </c>
-      <c r="F45">
-        <v>5411</v>
-      </c>
-      <c r="G45">
-        <v>3</v>
-      </c>
-      <c r="H45">
-        <v>5411</v>
-      </c>
-      <c r="I45">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>5453</v>
-      </c>
-      <c r="B46">
-        <v>2</v>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>197</v>
+      </c>
+      <c r="B46" t="s">
+        <v>41</v>
       </c>
       <c r="C46">
         <v>5453</v>
       </c>
       <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="E46">
+        <v>5453</v>
+      </c>
+      <c r="F46">
         <v>3</v>
       </c>
-      <c r="E46">
-        <v>2</v>
-      </c>
-      <c r="F46">
-        <v>5453</v>
-      </c>
-      <c r="G46">
-        <v>3</v>
-      </c>
-      <c r="H46">
-        <v>5453</v>
-      </c>
-      <c r="I46">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>5527</v>
-      </c>
-      <c r="B47">
-        <v>1</v>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>198</v>
+      </c>
+      <c r="B47" t="s">
+        <v>199</v>
       </c>
       <c r="C47">
         <v>5527</v>
@@ -3594,27 +3521,18 @@
         <v>1</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>5527</v>
       </c>
       <c r="F47">
-        <v>5527</v>
-      </c>
-      <c r="G47">
-        <v>1</v>
-      </c>
-      <c r="H47">
-        <v>5527</v>
-      </c>
-      <c r="I47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>5644</v>
-      </c>
-      <c r="B48">
-        <v>1</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>111</v>
+      </c>
+      <c r="B48" t="s">
+        <v>200</v>
       </c>
       <c r="C48">
         <v>5644</v>
@@ -3623,404 +3541,278 @@
         <v>1</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>5644</v>
       </c>
       <c r="F48">
-        <v>5644</v>
-      </c>
-      <c r="G48">
-        <v>1</v>
-      </c>
-      <c r="H48">
-        <v>5644</v>
-      </c>
-      <c r="I48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>5663</v>
-      </c>
-      <c r="B49">
-        <v>2</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>201</v>
+      </c>
+      <c r="B49" t="s">
+        <v>100</v>
       </c>
       <c r="C49">
         <v>5663</v>
       </c>
       <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="E49">
+        <v>5663</v>
+      </c>
+      <c r="F49">
         <v>3</v>
       </c>
-      <c r="E49">
-        <v>2</v>
-      </c>
-      <c r="F49">
-        <v>5663</v>
-      </c>
-      <c r="G49">
-        <v>3</v>
-      </c>
-      <c r="H49">
-        <v>5663</v>
-      </c>
-      <c r="I49">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>5702</v>
-      </c>
-      <c r="B50">
-        <v>2</v>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>202</v>
+      </c>
+      <c r="B50" t="s">
+        <v>61</v>
       </c>
       <c r="C50">
         <v>5702</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E50">
-        <v>2</v>
+        <v>5702</v>
       </c>
       <c r="F50">
-        <v>5702</v>
-      </c>
-      <c r="G50">
-        <v>1</v>
-      </c>
-      <c r="H50">
-        <v>5702</v>
-      </c>
-      <c r="I50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>5777</v>
-      </c>
-      <c r="B51">
-        <v>2</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>203</v>
+      </c>
+      <c r="B51" t="s">
+        <v>204</v>
       </c>
       <c r="C51">
         <v>5777</v>
       </c>
       <c r="D51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E51">
-        <v>2</v>
+        <v>5777</v>
       </c>
       <c r="F51">
-        <v>5777</v>
-      </c>
-      <c r="G51">
-        <v>1</v>
-      </c>
-      <c r="H51">
-        <v>5777</v>
-      </c>
-      <c r="I51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>5956</v>
-      </c>
-      <c r="B52">
-        <v>1</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>87</v>
+      </c>
+      <c r="B52" t="s">
+        <v>88</v>
       </c>
       <c r="C52">
         <v>5956</v>
       </c>
       <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>5956</v>
+      </c>
+      <c r="F52">
         <v>3</v>
       </c>
-      <c r="E52">
-        <v>1</v>
-      </c>
-      <c r="F52">
-        <v>5956</v>
-      </c>
-      <c r="G52">
-        <v>3</v>
-      </c>
-      <c r="H52">
-        <v>5956</v>
-      </c>
-      <c r="I52">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>6092</v>
-      </c>
-      <c r="B53">
-        <v>2</v>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53" t="s">
+        <v>205</v>
       </c>
       <c r="C53">
         <v>6092</v>
       </c>
       <c r="D53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E53">
-        <v>2</v>
+        <v>6092</v>
       </c>
       <c r="F53">
-        <v>6092</v>
-      </c>
-      <c r="G53">
-        <v>1</v>
-      </c>
-      <c r="H53">
-        <v>6092</v>
-      </c>
-      <c r="I53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>6214</v>
-      </c>
-      <c r="B54">
-        <v>1</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>89</v>
+      </c>
+      <c r="B54" t="s">
+        <v>90</v>
       </c>
       <c r="C54">
         <v>6214</v>
       </c>
       <c r="D54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>6214</v>
       </c>
       <c r="F54">
-        <v>6214</v>
-      </c>
-      <c r="G54">
-        <v>2</v>
-      </c>
-      <c r="H54">
-        <v>6214</v>
-      </c>
-      <c r="I54">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>6229</v>
-      </c>
-      <c r="B55">
-        <v>1</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>206</v>
+      </c>
+      <c r="B55" t="s">
+        <v>207</v>
       </c>
       <c r="C55">
         <v>6229</v>
       </c>
       <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <v>6229</v>
+      </c>
+      <c r="F55">
         <v>3</v>
       </c>
-      <c r="E55">
-        <v>1</v>
-      </c>
-      <c r="F55">
-        <v>6229</v>
-      </c>
-      <c r="G55">
-        <v>3</v>
-      </c>
-      <c r="H55">
-        <v>6229</v>
-      </c>
-      <c r="I55">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>6236</v>
-      </c>
-      <c r="B56">
-        <v>2</v>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>208</v>
+      </c>
+      <c r="B56" t="s">
+        <v>209</v>
       </c>
       <c r="C56">
         <v>6236</v>
       </c>
       <c r="D56">
+        <v>2</v>
+      </c>
+      <c r="E56">
+        <v>6236</v>
+      </c>
+      <c r="F56">
         <v>3</v>
       </c>
-      <c r="E56">
-        <v>2</v>
-      </c>
-      <c r="F56">
-        <v>6236</v>
-      </c>
-      <c r="G56">
-        <v>3</v>
-      </c>
-      <c r="H56">
-        <v>6236</v>
-      </c>
-      <c r="I56">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>6362</v>
-      </c>
-      <c r="B57">
-        <v>2</v>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>210</v>
+      </c>
+      <c r="B57" t="s">
+        <v>211</v>
       </c>
       <c r="C57">
         <v>6362</v>
       </c>
       <c r="D57">
+        <v>2</v>
+      </c>
+      <c r="E57">
+        <v>6362</v>
+      </c>
+      <c r="F57">
         <v>3</v>
       </c>
-      <c r="E57">
-        <v>2</v>
-      </c>
-      <c r="F57">
-        <v>6362</v>
-      </c>
-      <c r="G57">
-        <v>3</v>
-      </c>
-      <c r="H57">
-        <v>6362</v>
-      </c>
-      <c r="I57">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>6374</v>
-      </c>
-      <c r="B58">
-        <v>2</v>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>212</v>
+      </c>
+      <c r="B58" t="s">
+        <v>57</v>
       </c>
       <c r="C58">
         <v>6374</v>
       </c>
       <c r="D58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E58">
-        <v>2</v>
+        <v>6374</v>
       </c>
       <c r="F58">
-        <v>6374</v>
-      </c>
-      <c r="G58">
-        <v>1</v>
-      </c>
-      <c r="H58">
-        <v>6374</v>
-      </c>
-      <c r="I58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>6412</v>
-      </c>
-      <c r="B59">
-        <v>1</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>93</v>
+      </c>
+      <c r="B59" t="s">
+        <v>94</v>
       </c>
       <c r="C59">
         <v>6412</v>
       </c>
       <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>6412</v>
+      </c>
+      <c r="F59">
         <v>3</v>
       </c>
-      <c r="E59">
-        <v>1</v>
-      </c>
-      <c r="F59">
-        <v>6412</v>
-      </c>
-      <c r="G59">
-        <v>3</v>
-      </c>
-      <c r="H59">
-        <v>6412</v>
-      </c>
-      <c r="I59">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>6425</v>
-      </c>
-      <c r="B60">
-        <v>2</v>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>95</v>
+      </c>
+      <c r="B60" t="s">
+        <v>96</v>
       </c>
       <c r="C60">
         <v>6425</v>
       </c>
       <c r="D60">
+        <v>2</v>
+      </c>
+      <c r="E60">
+        <v>6425</v>
+      </c>
+      <c r="F60">
         <v>3</v>
       </c>
-      <c r="E60">
-        <v>2</v>
-      </c>
-      <c r="F60">
-        <v>6425</v>
-      </c>
-      <c r="G60">
-        <v>3</v>
-      </c>
-      <c r="H60">
-        <v>6425</v>
-      </c>
-      <c r="I60">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>6446</v>
-      </c>
-      <c r="B61">
-        <v>2</v>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>213</v>
+      </c>
+      <c r="B61" t="s">
+        <v>184</v>
       </c>
       <c r="C61">
         <v>6446</v>
       </c>
       <c r="D61">
+        <v>2</v>
+      </c>
+      <c r="E61">
+        <v>6446</v>
+      </c>
+      <c r="F61">
         <v>3</v>
       </c>
-      <c r="E61">
-        <v>2</v>
-      </c>
-      <c r="F61">
-        <v>6446</v>
-      </c>
-      <c r="G61">
-        <v>3</v>
-      </c>
-      <c r="H61">
-        <v>6446</v>
-      </c>
-      <c r="I61">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>6451</v>
-      </c>
-      <c r="B62">
-        <v>1</v>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>214</v>
+      </c>
+      <c r="B62" t="s">
+        <v>215</v>
       </c>
       <c r="C62">
         <v>6451</v>
@@ -4029,230 +3821,158 @@
         <v>1</v>
       </c>
       <c r="E62">
-        <v>1</v>
+        <v>6451</v>
       </c>
       <c r="F62">
-        <v>6451</v>
-      </c>
-      <c r="G62">
-        <v>1</v>
-      </c>
-      <c r="H62">
-        <v>6451</v>
-      </c>
-      <c r="I62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>6496</v>
-      </c>
-      <c r="B63">
-        <v>1</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>216</v>
+      </c>
+      <c r="B63" t="s">
+        <v>217</v>
       </c>
       <c r="C63">
         <v>6496</v>
       </c>
       <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>6496</v>
+      </c>
+      <c r="F63">
         <v>3</v>
       </c>
-      <c r="E63">
-        <v>1</v>
-      </c>
-      <c r="F63">
-        <v>6496</v>
-      </c>
-      <c r="G63">
-        <v>3</v>
-      </c>
-      <c r="H63">
-        <v>6496</v>
-      </c>
-      <c r="I63">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>6566</v>
-      </c>
-      <c r="B64">
-        <v>2</v>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>99</v>
+      </c>
+      <c r="B64" t="s">
+        <v>100</v>
       </c>
       <c r="C64">
         <v>6566</v>
       </c>
       <c r="D64">
+        <v>2</v>
+      </c>
+      <c r="E64">
+        <v>6566</v>
+      </c>
+      <c r="F64">
         <v>3</v>
       </c>
-      <c r="E64">
-        <v>2</v>
-      </c>
-      <c r="F64">
-        <v>6566</v>
-      </c>
-      <c r="G64">
-        <v>3</v>
-      </c>
-      <c r="H64">
-        <v>6566</v>
-      </c>
-      <c r="I64">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>6655</v>
-      </c>
-      <c r="B65">
-        <v>1</v>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>218</v>
+      </c>
+      <c r="B65" t="s">
+        <v>159</v>
       </c>
       <c r="C65">
         <v>6655</v>
       </c>
       <c r="D65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E65">
-        <v>1</v>
+        <v>6655</v>
       </c>
       <c r="F65">
-        <v>6655</v>
-      </c>
-      <c r="G65">
-        <v>2</v>
-      </c>
-      <c r="H65">
-        <v>6655</v>
-      </c>
-      <c r="I65">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>6739</v>
-      </c>
-      <c r="B66">
-        <v>1</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>219</v>
+      </c>
+      <c r="B66" t="s">
+        <v>220</v>
       </c>
       <c r="C66">
         <v>6739</v>
       </c>
       <c r="D66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E66">
-        <v>1</v>
+        <v>6739</v>
       </c>
       <c r="F66">
-        <v>6739</v>
-      </c>
-      <c r="G66">
-        <v>2</v>
-      </c>
-      <c r="H66">
-        <v>6739</v>
-      </c>
-      <c r="I66">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>6838</v>
-      </c>
-      <c r="B67">
-        <v>1</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>221</v>
+      </c>
+      <c r="B67" t="s">
+        <v>222</v>
       </c>
       <c r="C67">
         <v>6838</v>
       </c>
       <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67">
+        <v>6838</v>
+      </c>
+      <c r="F67">
         <v>3</v>
       </c>
-      <c r="E67">
-        <v>1</v>
-      </c>
-      <c r="F67">
-        <v>6838</v>
-      </c>
-      <c r="G67">
-        <v>3</v>
-      </c>
-      <c r="H67">
-        <v>6838</v>
-      </c>
-      <c r="I67">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>6937</v>
-      </c>
-      <c r="B68">
-        <v>1</v>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>110</v>
+      </c>
+      <c r="B68" t="s">
+        <v>111</v>
       </c>
       <c r="C68">
         <v>6937</v>
       </c>
       <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>6937</v>
+      </c>
+      <c r="F68">
         <v>3</v>
       </c>
-      <c r="E68">
-        <v>1</v>
-      </c>
-      <c r="F68">
-        <v>6937</v>
-      </c>
-      <c r="G68">
-        <v>3</v>
-      </c>
-      <c r="H68">
-        <v>6937</v>
-      </c>
-      <c r="I68">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>6953</v>
-      </c>
-      <c r="B69">
-        <v>2</v>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>223</v>
+      </c>
+      <c r="B69" t="s">
+        <v>224</v>
       </c>
       <c r="C69">
         <v>6953</v>
       </c>
       <c r="D69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E69">
-        <v>2</v>
+        <v>6953</v>
       </c>
       <c r="F69">
-        <v>6953</v>
-      </c>
-      <c r="G69">
-        <v>1</v>
-      </c>
-      <c r="H69">
-        <v>6953</v>
-      </c>
-      <c r="I69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>6959</v>
-      </c>
-      <c r="B70">
-        <v>2</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B70" t="s">
+        <v>16</v>
       </c>
       <c r="C70">
         <v>6959</v>
@@ -4261,27 +3981,18 @@
         <v>2</v>
       </c>
       <c r="E70">
-        <v>2</v>
+        <v>6959</v>
       </c>
       <c r="F70">
-        <v>6959</v>
-      </c>
-      <c r="G70">
-        <v>2</v>
-      </c>
-      <c r="H70">
-        <v>6959</v>
-      </c>
-      <c r="I70">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>6977</v>
-      </c>
-      <c r="B71">
-        <v>2</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>225</v>
+      </c>
+      <c r="B71" t="s">
+        <v>226</v>
       </c>
       <c r="C71">
         <v>6977</v>
@@ -4290,27 +4001,18 @@
         <v>2</v>
       </c>
       <c r="E71">
-        <v>2</v>
+        <v>6977</v>
       </c>
       <c r="F71">
-        <v>6977</v>
-      </c>
-      <c r="G71">
-        <v>2</v>
-      </c>
-      <c r="H71">
-        <v>6977</v>
-      </c>
-      <c r="I71">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>7040</v>
-      </c>
-      <c r="B72">
-        <v>2</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>227</v>
+      </c>
+      <c r="B72" t="s">
+        <v>228</v>
       </c>
       <c r="C72">
         <v>7040</v>
@@ -4319,143 +4021,98 @@
         <v>2</v>
       </c>
       <c r="E72">
-        <v>2</v>
+        <v>7040</v>
       </c>
       <c r="F72">
-        <v>7040</v>
-      </c>
-      <c r="G72">
-        <v>2</v>
-      </c>
-      <c r="H72">
-        <v>7040</v>
-      </c>
-      <c r="I72">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>7042</v>
-      </c>
-      <c r="B73">
-        <v>1</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>112</v>
+      </c>
+      <c r="B73" t="s">
+        <v>113</v>
       </c>
       <c r="C73">
         <v>7042</v>
       </c>
       <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73">
+        <v>7042</v>
+      </c>
+      <c r="F73">
         <v>3</v>
       </c>
-      <c r="E73">
-        <v>1</v>
-      </c>
-      <c r="F73">
-        <v>7042</v>
-      </c>
-      <c r="G73">
-        <v>3</v>
-      </c>
-      <c r="H73">
-        <v>7042</v>
-      </c>
-      <c r="I73">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>7076</v>
-      </c>
-      <c r="B74">
-        <v>2</v>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>114</v>
+      </c>
+      <c r="B74" t="s">
+        <v>115</v>
       </c>
       <c r="C74">
         <v>7076</v>
       </c>
       <c r="D74">
+        <v>2</v>
+      </c>
+      <c r="E74">
+        <v>7076</v>
+      </c>
+      <c r="F74">
         <v>3</v>
       </c>
-      <c r="E74">
-        <v>2</v>
-      </c>
-      <c r="F74">
-        <v>7076</v>
-      </c>
-      <c r="G74">
-        <v>3</v>
-      </c>
-      <c r="H74">
-        <v>7076</v>
-      </c>
-      <c r="I74">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>7130</v>
-      </c>
-      <c r="B75">
-        <v>2</v>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>206</v>
+      </c>
+      <c r="B75" t="s">
+        <v>229</v>
       </c>
       <c r="C75">
         <v>7130</v>
       </c>
       <c r="D75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E75">
-        <v>2</v>
+        <v>7130</v>
       </c>
       <c r="F75">
-        <v>7130</v>
-      </c>
-      <c r="G75">
-        <v>1</v>
-      </c>
-      <c r="H75">
-        <v>7130</v>
-      </c>
-      <c r="I75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>7174</v>
-      </c>
-      <c r="B76">
-        <v>1</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>230</v>
+      </c>
+      <c r="B76" t="s">
+        <v>231</v>
       </c>
       <c r="C76">
         <v>7174</v>
       </c>
       <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="E76">
+        <v>7174</v>
+      </c>
+      <c r="F76">
         <v>3</v>
       </c>
-      <c r="E76">
-        <v>1</v>
-      </c>
-      <c r="F76">
-        <v>7174</v>
-      </c>
-      <c r="G76">
-        <v>3</v>
-      </c>
-      <c r="H76">
-        <v>7174</v>
-      </c>
-      <c r="I76">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>7292</v>
-      </c>
-      <c r="B77">
-        <v>2</v>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>232</v>
+      </c>
+      <c r="B77" t="s">
+        <v>233</v>
       </c>
       <c r="C77">
         <v>7292</v>
@@ -4464,27 +4121,18 @@
         <v>2</v>
       </c>
       <c r="E77">
-        <v>2</v>
+        <v>7292</v>
       </c>
       <c r="F77">
-        <v>7292</v>
-      </c>
-      <c r="G77">
-        <v>2</v>
-      </c>
-      <c r="H77">
-        <v>7292</v>
-      </c>
-      <c r="I77">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>7387</v>
-      </c>
-      <c r="B78">
-        <v>1</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>234</v>
+      </c>
+      <c r="B78" t="s">
+        <v>235</v>
       </c>
       <c r="C78">
         <v>7387</v>
@@ -4493,27 +4141,18 @@
         <v>1</v>
       </c>
       <c r="E78">
-        <v>1</v>
+        <v>7387</v>
       </c>
       <c r="F78">
-        <v>7387</v>
-      </c>
-      <c r="G78">
-        <v>1</v>
-      </c>
-      <c r="H78">
-        <v>7387</v>
-      </c>
-      <c r="I78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>7547</v>
-      </c>
-      <c r="B79">
-        <v>2</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>116</v>
+      </c>
+      <c r="B79" t="s">
+        <v>117</v>
       </c>
       <c r="C79">
         <v>7547</v>
@@ -4522,56 +4161,38 @@
         <v>2</v>
       </c>
       <c r="E79">
-        <v>2</v>
+        <v>7547</v>
       </c>
       <c r="F79">
-        <v>7547</v>
-      </c>
-      <c r="G79">
-        <v>2</v>
-      </c>
-      <c r="H79">
-        <v>7547</v>
-      </c>
-      <c r="I79">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>7655</v>
-      </c>
-      <c r="B80">
-        <v>2</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>236</v>
+      </c>
+      <c r="B80" t="s">
+        <v>237</v>
       </c>
       <c r="C80">
         <v>7655</v>
       </c>
       <c r="D80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E80">
-        <v>2</v>
+        <v>7655</v>
       </c>
       <c r="F80">
-        <v>7655</v>
-      </c>
-      <c r="G80">
-        <v>1</v>
-      </c>
-      <c r="H80">
-        <v>7655</v>
-      </c>
-      <c r="I80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>7660</v>
-      </c>
-      <c r="B81">
-        <v>1</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>174</v>
+      </c>
+      <c r="B81" t="s">
+        <v>238</v>
       </c>
       <c r="C81">
         <v>7660</v>
@@ -4580,201 +4201,138 @@
         <v>1</v>
       </c>
       <c r="E81">
-        <v>1</v>
+        <v>7660</v>
       </c>
       <c r="F81">
-        <v>7660</v>
-      </c>
-      <c r="G81">
-        <v>1</v>
-      </c>
-      <c r="H81">
-        <v>7660</v>
-      </c>
-      <c r="I81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>7742</v>
-      </c>
-      <c r="B82">
-        <v>2</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>239</v>
+      </c>
+      <c r="B82" t="s">
+        <v>240</v>
       </c>
       <c r="C82">
         <v>7742</v>
       </c>
       <c r="D82">
+        <v>2</v>
+      </c>
+      <c r="E82">
+        <v>7742</v>
+      </c>
+      <c r="F82">
         <v>3</v>
       </c>
-      <c r="E82">
-        <v>2</v>
-      </c>
-      <c r="F82">
-        <v>7742</v>
-      </c>
-      <c r="G82">
-        <v>3</v>
-      </c>
-      <c r="H82">
-        <v>7742</v>
-      </c>
-      <c r="I82">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>7750</v>
-      </c>
-      <c r="B83">
-        <v>1</v>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>118</v>
+      </c>
+      <c r="B83" t="s">
+        <v>119</v>
       </c>
       <c r="C83">
         <v>7750</v>
       </c>
       <c r="D83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E83">
-        <v>1</v>
+        <v>7750</v>
       </c>
       <c r="F83">
-        <v>7750</v>
-      </c>
-      <c r="G83">
-        <v>2</v>
-      </c>
-      <c r="H83">
-        <v>7750</v>
-      </c>
-      <c r="I83">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>7804</v>
-      </c>
-      <c r="B84">
-        <v>1</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>241</v>
+      </c>
+      <c r="B84" t="s">
+        <v>143</v>
       </c>
       <c r="C84">
         <v>7804</v>
       </c>
       <c r="D84">
+        <v>1</v>
+      </c>
+      <c r="E84">
+        <v>7804</v>
+      </c>
+      <c r="F84">
         <v>3</v>
       </c>
-      <c r="E84">
-        <v>1</v>
-      </c>
-      <c r="F84">
-        <v>7804</v>
-      </c>
-      <c r="G84">
-        <v>3</v>
-      </c>
-      <c r="H84">
-        <v>7804</v>
-      </c>
-      <c r="I84">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>7826</v>
-      </c>
-      <c r="B85">
-        <v>2</v>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>242</v>
+      </c>
+      <c r="B85" t="s">
+        <v>49</v>
       </c>
       <c r="C85">
         <v>7826</v>
       </c>
       <c r="D85">
+        <v>2</v>
+      </c>
+      <c r="E85">
+        <v>7826</v>
+      </c>
+      <c r="F85">
         <v>3</v>
       </c>
-      <c r="E85">
-        <v>2</v>
-      </c>
-      <c r="F85">
-        <v>7826</v>
-      </c>
-      <c r="G85">
-        <v>3</v>
-      </c>
-      <c r="H85">
-        <v>7826</v>
-      </c>
-      <c r="I85">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <v>7876</v>
-      </c>
-      <c r="B86">
-        <v>1</v>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>122</v>
+      </c>
+      <c r="B86" t="s">
+        <v>65</v>
       </c>
       <c r="C86">
         <v>7876</v>
       </c>
       <c r="D86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E86">
-        <v>1</v>
+        <v>7876</v>
       </c>
       <c r="F86">
-        <v>7876</v>
-      </c>
-      <c r="G86">
-        <v>2</v>
-      </c>
-      <c r="H86">
-        <v>7876</v>
-      </c>
-      <c r="I86">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <v>7919</v>
-      </c>
-      <c r="B87">
-        <v>2</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>243</v>
+      </c>
+      <c r="B87" t="s">
+        <v>244</v>
       </c>
       <c r="C87">
         <v>7919</v>
       </c>
       <c r="D87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E87">
-        <v>2</v>
+        <v>7919</v>
       </c>
       <c r="F87">
-        <v>7919</v>
-      </c>
-      <c r="G87">
-        <v>1</v>
-      </c>
-      <c r="H87">
-        <v>7919</v>
-      </c>
-      <c r="I87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <v>7975</v>
-      </c>
-      <c r="B88">
-        <v>1</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>125</v>
+      </c>
+      <c r="B88" t="s">
+        <v>126</v>
       </c>
       <c r="C88">
         <v>7975</v>
@@ -4783,27 +4341,18 @@
         <v>1</v>
       </c>
       <c r="E88">
-        <v>1</v>
+        <v>7975</v>
       </c>
       <c r="F88">
-        <v>7975</v>
-      </c>
-      <c r="G88">
-        <v>1</v>
-      </c>
-      <c r="H88">
-        <v>7975</v>
-      </c>
-      <c r="I88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <v>8090</v>
-      </c>
-      <c r="B89">
-        <v>2</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>245</v>
+      </c>
+      <c r="B89" t="s">
+        <v>246</v>
       </c>
       <c r="C89">
         <v>8090</v>
@@ -4812,85 +4361,58 @@
         <v>2</v>
       </c>
       <c r="E89">
-        <v>2</v>
+        <v>8090</v>
       </c>
       <c r="F89">
-        <v>8090</v>
-      </c>
-      <c r="G89">
-        <v>2</v>
-      </c>
-      <c r="H89">
-        <v>8090</v>
-      </c>
-      <c r="I89">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>8246</v>
-      </c>
-      <c r="B90">
-        <v>2</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>247</v>
+      </c>
+      <c r="B90" t="s">
+        <v>248</v>
       </c>
       <c r="C90">
         <v>8246</v>
       </c>
       <c r="D90">
+        <v>2</v>
+      </c>
+      <c r="E90">
+        <v>8246</v>
+      </c>
+      <c r="F90">
         <v>3</v>
       </c>
-      <c r="E90">
-        <v>2</v>
-      </c>
-      <c r="F90">
-        <v>8246</v>
-      </c>
-      <c r="G90">
-        <v>3</v>
-      </c>
-      <c r="H90">
-        <v>8246</v>
-      </c>
-      <c r="I90">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>8264</v>
-      </c>
-      <c r="B91">
-        <v>2</v>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>249</v>
+      </c>
+      <c r="B91" t="s">
+        <v>250</v>
       </c>
       <c r="C91">
         <v>8264</v>
       </c>
       <c r="D91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E91">
-        <v>2</v>
+        <v>8264</v>
       </c>
       <c r="F91">
-        <v>8264</v>
-      </c>
-      <c r="G91">
-        <v>1</v>
-      </c>
-      <c r="H91">
-        <v>8264</v>
-      </c>
-      <c r="I91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <v>8311</v>
-      </c>
-      <c r="B92">
-        <v>1</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>251</v>
+      </c>
+      <c r="B92" t="s">
+        <v>252</v>
       </c>
       <c r="C92">
         <v>8311</v>
@@ -4899,27 +4421,18 @@
         <v>1</v>
       </c>
       <c r="E92">
-        <v>1</v>
+        <v>8311</v>
       </c>
       <c r="F92">
-        <v>8311</v>
-      </c>
-      <c r="G92">
-        <v>1</v>
-      </c>
-      <c r="H92">
-        <v>8311</v>
-      </c>
-      <c r="I92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <v>8408</v>
-      </c>
-      <c r="B93">
-        <v>2</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>253</v>
+      </c>
+      <c r="B93" t="s">
+        <v>254</v>
       </c>
       <c r="C93">
         <v>8408</v>
@@ -4928,27 +4441,18 @@
         <v>2</v>
       </c>
       <c r="E93">
-        <v>2</v>
+        <v>8408</v>
       </c>
       <c r="F93">
-        <v>8408</v>
-      </c>
-      <c r="G93">
-        <v>2</v>
-      </c>
-      <c r="H93">
-        <v>8408</v>
-      </c>
-      <c r="I93">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <v>8446</v>
-      </c>
-      <c r="B94">
-        <v>1</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>82</v>
+      </c>
+      <c r="B94" t="s">
+        <v>39</v>
       </c>
       <c r="C94">
         <v>8446</v>
@@ -4957,114 +4461,78 @@
         <v>1</v>
       </c>
       <c r="E94">
-        <v>1</v>
+        <v>8446</v>
       </c>
       <c r="F94">
-        <v>8446</v>
-      </c>
-      <c r="G94">
-        <v>1</v>
-      </c>
-      <c r="H94">
-        <v>8446</v>
-      </c>
-      <c r="I94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95">
-        <v>8453</v>
-      </c>
-      <c r="B95">
-        <v>2</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>131</v>
+      </c>
+      <c r="B95" t="s">
+        <v>132</v>
       </c>
       <c r="C95">
         <v>8453</v>
       </c>
       <c r="D95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E95">
-        <v>2</v>
+        <v>8453</v>
       </c>
       <c r="F95">
-        <v>8453</v>
-      </c>
-      <c r="G95">
-        <v>1</v>
-      </c>
-      <c r="H95">
-        <v>8453</v>
-      </c>
-      <c r="I95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A96">
-        <v>8497</v>
-      </c>
-      <c r="B96">
-        <v>1</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>255</v>
+      </c>
+      <c r="B96" t="s">
+        <v>154</v>
       </c>
       <c r="C96">
         <v>8497</v>
       </c>
       <c r="D96">
+        <v>1</v>
+      </c>
+      <c r="E96">
+        <v>8497</v>
+      </c>
+      <c r="F96">
         <v>3</v>
       </c>
-      <c r="E96">
-        <v>1</v>
-      </c>
-      <c r="F96">
-        <v>8497</v>
-      </c>
-      <c r="G96">
-        <v>3</v>
-      </c>
-      <c r="H96">
-        <v>8497</v>
-      </c>
-      <c r="I96">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A97">
-        <v>8503</v>
-      </c>
-      <c r="B97">
-        <v>1</v>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>256</v>
+      </c>
+      <c r="B97" t="s">
+        <v>80</v>
       </c>
       <c r="C97">
         <v>8503</v>
       </c>
       <c r="D97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E97">
-        <v>1</v>
+        <v>8503</v>
       </c>
       <c r="F97">
-        <v>8503</v>
-      </c>
-      <c r="G97">
-        <v>2</v>
-      </c>
-      <c r="H97">
-        <v>8503</v>
-      </c>
-      <c r="I97">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A98">
-        <v>8626</v>
-      </c>
-      <c r="B98">
-        <v>1</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>133</v>
+      </c>
+      <c r="B98" t="s">
+        <v>134</v>
       </c>
       <c r="C98">
         <v>8626</v>
@@ -5073,27 +4541,18 @@
         <v>1</v>
       </c>
       <c r="E98">
-        <v>1</v>
+        <v>8626</v>
       </c>
       <c r="F98">
-        <v>8626</v>
-      </c>
-      <c r="G98">
-        <v>1</v>
-      </c>
-      <c r="H98">
-        <v>8626</v>
-      </c>
-      <c r="I98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99">
-        <v>8660</v>
-      </c>
-      <c r="B99">
-        <v>2</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>135</v>
+      </c>
+      <c r="B99" t="s">
+        <v>136</v>
       </c>
       <c r="C99">
         <v>8660</v>
@@ -5102,27 +4561,18 @@
         <v>2</v>
       </c>
       <c r="E99">
-        <v>2</v>
+        <v>8660</v>
       </c>
       <c r="F99">
-        <v>8660</v>
-      </c>
-      <c r="G99">
-        <v>2</v>
-      </c>
-      <c r="H99">
-        <v>8660</v>
-      </c>
-      <c r="I99">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A100">
-        <v>8678</v>
-      </c>
-      <c r="B100">
-        <v>2</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>257</v>
+      </c>
+      <c r="B100" t="s">
+        <v>98</v>
       </c>
       <c r="C100">
         <v>8678</v>
@@ -5131,85 +4581,58 @@
         <v>2</v>
       </c>
       <c r="E100">
-        <v>2</v>
+        <v>8678</v>
       </c>
       <c r="F100">
-        <v>8678</v>
-      </c>
-      <c r="G100">
-        <v>2</v>
-      </c>
-      <c r="H100">
-        <v>8678</v>
-      </c>
-      <c r="I100">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A101">
-        <v>8780</v>
-      </c>
-      <c r="B101">
-        <v>2</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>258</v>
+      </c>
+      <c r="B101" t="s">
+        <v>191</v>
       </c>
       <c r="C101">
         <v>8780</v>
       </c>
       <c r="D101">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E101">
-        <v>2</v>
+        <v>8780</v>
       </c>
       <c r="F101">
-        <v>8780</v>
-      </c>
-      <c r="G101">
-        <v>1</v>
-      </c>
-      <c r="H101">
-        <v>8780</v>
-      </c>
-      <c r="I101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A102">
-        <v>8860</v>
-      </c>
-      <c r="B102">
-        <v>1</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>137</v>
+      </c>
+      <c r="B102" t="s">
+        <v>63</v>
       </c>
       <c r="C102">
         <v>8860</v>
       </c>
       <c r="D102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E102">
-        <v>1</v>
+        <v>8860</v>
       </c>
       <c r="F102">
-        <v>8860</v>
-      </c>
-      <c r="G102">
-        <v>2</v>
-      </c>
-      <c r="H102">
-        <v>8860</v>
-      </c>
-      <c r="I102">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A103">
-        <v>8972</v>
-      </c>
-      <c r="B103">
-        <v>2</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>259</v>
+      </c>
+      <c r="B103" t="s">
+        <v>260</v>
       </c>
       <c r="C103">
         <v>8972</v>
@@ -5218,56 +4641,38 @@
         <v>2</v>
       </c>
       <c r="E103">
-        <v>2</v>
+        <v>8972</v>
       </c>
       <c r="F103">
-        <v>8972</v>
-      </c>
-      <c r="G103">
-        <v>2</v>
-      </c>
-      <c r="H103">
-        <v>8972</v>
-      </c>
-      <c r="I103">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A104">
-        <v>9002</v>
-      </c>
-      <c r="B104">
-        <v>2</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>138</v>
+      </c>
+      <c r="B104" t="s">
+        <v>139</v>
       </c>
       <c r="C104">
         <v>9002</v>
       </c>
       <c r="D104">
+        <v>2</v>
+      </c>
+      <c r="E104">
+        <v>9002</v>
+      </c>
+      <c r="F104">
         <v>3</v>
       </c>
-      <c r="E104">
-        <v>2</v>
-      </c>
-      <c r="F104">
-        <v>9002</v>
-      </c>
-      <c r="G104">
-        <v>3</v>
-      </c>
-      <c r="H104">
-        <v>9002</v>
-      </c>
-      <c r="I104">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A105">
-        <v>9025</v>
-      </c>
-      <c r="B105">
-        <v>1</v>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>261</v>
+      </c>
+      <c r="B105" t="s">
+        <v>262</v>
       </c>
       <c r="C105">
         <v>9025</v>
@@ -5276,56 +4681,38 @@
         <v>1</v>
       </c>
       <c r="E105">
-        <v>1</v>
+        <v>9025</v>
       </c>
       <c r="F105">
-        <v>9025</v>
-      </c>
-      <c r="G105">
-        <v>1</v>
-      </c>
-      <c r="H105">
-        <v>9025</v>
-      </c>
-      <c r="I105">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A106">
-        <v>9094</v>
-      </c>
-      <c r="B106">
-        <v>1</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>263</v>
+      </c>
+      <c r="B106" t="s">
+        <v>187</v>
       </c>
       <c r="C106">
         <v>9094</v>
       </c>
       <c r="D106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E106">
-        <v>1</v>
+        <v>9094</v>
       </c>
       <c r="F106">
-        <v>9094</v>
-      </c>
-      <c r="G106">
-        <v>2</v>
-      </c>
-      <c r="H106">
-        <v>9094</v>
-      </c>
-      <c r="I106">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A107">
-        <v>9223</v>
-      </c>
-      <c r="B107">
-        <v>1</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>140</v>
+      </c>
+      <c r="B107" t="s">
+        <v>141</v>
       </c>
       <c r="C107">
         <v>9223</v>
@@ -5334,27 +4721,18 @@
         <v>1</v>
       </c>
       <c r="E107">
-        <v>1</v>
+        <v>9223</v>
       </c>
       <c r="F107">
-        <v>9223</v>
-      </c>
-      <c r="G107">
-        <v>1</v>
-      </c>
-      <c r="H107">
-        <v>9223</v>
-      </c>
-      <c r="I107">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A108">
-        <v>9266</v>
-      </c>
-      <c r="B108">
-        <v>2</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>264</v>
+      </c>
+      <c r="B108" t="s">
+        <v>117</v>
       </c>
       <c r="C108">
         <v>9266</v>
@@ -5363,56 +4741,38 @@
         <v>2</v>
       </c>
       <c r="E108">
-        <v>2</v>
+        <v>9266</v>
       </c>
       <c r="F108">
-        <v>9266</v>
-      </c>
-      <c r="G108">
-        <v>2</v>
-      </c>
-      <c r="H108">
-        <v>9266</v>
-      </c>
-      <c r="I108">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A109">
-        <v>9343</v>
-      </c>
-      <c r="B109">
-        <v>1</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>265</v>
+      </c>
+      <c r="B109" t="s">
+        <v>200</v>
       </c>
       <c r="C109">
         <v>9343</v>
       </c>
       <c r="D109">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E109">
-        <v>1</v>
+        <v>9343</v>
       </c>
       <c r="F109">
-        <v>9343</v>
-      </c>
-      <c r="G109">
-        <v>2</v>
-      </c>
-      <c r="H109">
-        <v>9343</v>
-      </c>
-      <c r="I109">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A110">
-        <v>9374</v>
-      </c>
-      <c r="B110">
-        <v>2</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>142</v>
+      </c>
+      <c r="B110" t="s">
+        <v>143</v>
       </c>
       <c r="C110">
         <v>9374</v>
@@ -5421,56 +4781,38 @@
         <v>2</v>
       </c>
       <c r="E110">
-        <v>2</v>
+        <v>9374</v>
       </c>
       <c r="F110">
-        <v>9374</v>
-      </c>
-      <c r="G110">
-        <v>2</v>
-      </c>
-      <c r="H110">
-        <v>9374</v>
-      </c>
-      <c r="I110">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A111">
-        <v>9401</v>
-      </c>
-      <c r="B111">
-        <v>2</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>21</v>
+      </c>
+      <c r="B111" t="s">
+        <v>22</v>
       </c>
       <c r="C111">
         <v>9401</v>
       </c>
       <c r="D111">
+        <v>2</v>
+      </c>
+      <c r="E111">
+        <v>9401</v>
+      </c>
+      <c r="F111">
         <v>3</v>
       </c>
-      <c r="E111">
-        <v>2</v>
-      </c>
-      <c r="F111">
-        <v>9401</v>
-      </c>
-      <c r="G111">
-        <v>3</v>
-      </c>
-      <c r="H111">
-        <v>9401</v>
-      </c>
-      <c r="I111">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A112">
-        <v>9475</v>
-      </c>
-      <c r="B112">
-        <v>1</v>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>266</v>
+      </c>
+      <c r="B112" t="s">
+        <v>267</v>
       </c>
       <c r="C112">
         <v>9475</v>
@@ -5479,303 +4821,90 @@
         <v>1</v>
       </c>
       <c r="E112">
-        <v>1</v>
+        <v>9475</v>
       </c>
       <c r="F112">
-        <v>9475</v>
-      </c>
-      <c r="G112">
-        <v>1</v>
-      </c>
-      <c r="H112">
-        <v>9475</v>
-      </c>
-      <c r="I112">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A113">
-        <v>9611</v>
-      </c>
-      <c r="B113">
-        <v>2</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>268</v>
+      </c>
+      <c r="B113" t="s">
+        <v>269</v>
       </c>
       <c r="C113">
         <v>9611</v>
       </c>
       <c r="D113">
+        <v>2</v>
+      </c>
+      <c r="E113">
+        <v>9611</v>
+      </c>
+      <c r="F113">
         <v>3</v>
       </c>
-      <c r="E113">
-        <v>2</v>
-      </c>
-      <c r="F113">
-        <v>9611</v>
-      </c>
-      <c r="G113">
-        <v>3</v>
-      </c>
-      <c r="H113">
-        <v>9611</v>
-      </c>
-      <c r="I113">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A114">
-        <v>9755</v>
-      </c>
-      <c r="B114">
-        <v>2</v>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>270</v>
+      </c>
+      <c r="B114" t="s">
+        <v>271</v>
       </c>
       <c r="C114">
         <v>9755</v>
       </c>
       <c r="D114">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E114">
-        <v>2</v>
+        <v>9755</v>
       </c>
       <c r="F114">
-        <v>9755</v>
-      </c>
-      <c r="G114">
-        <v>1</v>
-      </c>
-      <c r="H114">
-        <v>9755</v>
-      </c>
-      <c r="I114">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A115">
-        <v>9829</v>
-      </c>
-      <c r="B115">
-        <v>1</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>272</v>
+      </c>
+      <c r="B115" t="s">
+        <v>273</v>
       </c>
       <c r="C115">
         <v>9829</v>
       </c>
       <c r="D115">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E115">
-        <v>1</v>
+        <v>9829</v>
       </c>
       <c r="F115">
-        <v>9829</v>
-      </c>
-      <c r="G115">
-        <v>2</v>
-      </c>
-      <c r="H115">
-        <v>9829</v>
-      </c>
-      <c r="I115">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A116">
-        <v>9910</v>
-      </c>
-      <c r="B116">
-        <v>1</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>274</v>
+      </c>
+      <c r="B116" t="s">
+        <v>275</v>
       </c>
       <c r="C116">
         <v>9910</v>
       </c>
       <c r="D116">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E116">
-        <v>1</v>
+        <v>9910</v>
       </c>
       <c r="F116">
-        <v>9910</v>
-      </c>
-      <c r="G116">
-        <v>2</v>
-      </c>
-      <c r="H116">
-        <v>9910</v>
-      </c>
-      <c r="I116">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A117">
-        <v>1088</v>
-      </c>
-      <c r="B117">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A118">
-        <v>1739</v>
-      </c>
-      <c r="B118">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A119">
-        <v>2600</v>
-      </c>
-      <c r="B119">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A120">
-        <v>3020</v>
-      </c>
-      <c r="B120">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A121">
-        <v>3041</v>
-      </c>
-      <c r="B121">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A122">
-        <v>3587</v>
-      </c>
-      <c r="B122">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A123">
-        <v>3622</v>
-      </c>
-      <c r="B123">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A124">
-        <v>3818</v>
-      </c>
-      <c r="B124">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A125">
-        <v>4406</v>
-      </c>
-      <c r="B125">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A126">
-        <v>5267</v>
-      </c>
-      <c r="B126">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A127">
-        <v>5477</v>
-      </c>
-      <c r="B127">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A128">
-        <v>5827</v>
-      </c>
-      <c r="B128">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129">
-        <v>5995</v>
-      </c>
-      <c r="B129">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130">
-        <v>6541</v>
-      </c>
-      <c r="B130">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131">
-        <v>6674</v>
-      </c>
-      <c r="B131">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132">
-        <v>6919</v>
-      </c>
-      <c r="B132">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133">
-        <v>7066</v>
-      </c>
-      <c r="B133">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134">
-        <v>7871</v>
-      </c>
-      <c r="B134">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135">
-        <v>8417</v>
-      </c>
-      <c r="B135">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136">
-        <v>8774</v>
-      </c>
-      <c r="B136">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137">
-        <v>9523</v>
-      </c>
-      <c r="B137">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -5791,9 +4920,9 @@
       <selection activeCell="I8" sqref="I8 A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -5804,29 +4933,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1088</v>
       </c>
       <c r="B2" t="s">
-        <v>152</v>
+        <v>276</v>
       </c>
       <c r="C2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1739</v>
       </c>
       <c r="B3" t="s">
-        <v>153</v>
+        <v>277</v>
       </c>
       <c r="C3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2600</v>
       </c>
@@ -5837,18 +4966,18 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3020</v>
       </c>
       <c r="B5" t="s">
-        <v>155</v>
+        <v>278</v>
       </c>
       <c r="C5" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>3041</v>
       </c>
@@ -5859,18 +4988,18 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>3587</v>
       </c>
       <c r="B7" t="s">
-        <v>157</v>
+        <v>280</v>
       </c>
       <c r="C7" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>3622</v>
       </c>
@@ -5881,18 +5010,18 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>3818</v>
       </c>
       <c r="B9" t="s">
-        <v>159</v>
+        <v>282</v>
       </c>
       <c r="C9" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>4406</v>
       </c>
@@ -5903,40 +5032,40 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>5267</v>
       </c>
       <c r="B11" t="s">
-        <v>161</v>
+        <v>284</v>
       </c>
       <c r="C11" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>5477</v>
       </c>
       <c r="B12" t="s">
-        <v>163</v>
+        <v>286</v>
       </c>
       <c r="C12" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>5827</v>
       </c>
       <c r="B13" t="s">
-        <v>165</v>
+        <v>288</v>
       </c>
       <c r="C13" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>5995</v>
       </c>
@@ -5944,54 +5073,54 @@
         <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>6541</v>
       </c>
       <c r="B15" t="s">
-        <v>168</v>
+        <v>291</v>
       </c>
       <c r="C15" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>6674</v>
       </c>
       <c r="B16" t="s">
-        <v>170</v>
+        <v>293</v>
       </c>
       <c r="C16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>6919</v>
       </c>
       <c r="B17" t="s">
-        <v>171</v>
+        <v>294</v>
       </c>
       <c r="C17" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>7066</v>
       </c>
       <c r="B18" t="s">
-        <v>173</v>
+        <v>296</v>
       </c>
       <c r="C18" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>7871</v>
       </c>
@@ -6002,7 +5131,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>8417</v>
       </c>
@@ -6013,18 +5142,18 @@
         <v>130</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>8774</v>
       </c>
       <c r="B21" t="s">
-        <v>175</v>
+        <v>298</v>
       </c>
       <c r="C21" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>9523</v>
       </c>
@@ -6044,11 +5173,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -6059,7 +5188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1290</v>
       </c>
@@ -6070,7 +5199,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1395</v>
       </c>
@@ -6081,7 +5210,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1716</v>
       </c>
@@ -6092,18 +5221,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1818</v>
       </c>
       <c r="B5" t="s">
-        <v>177</v>
+        <v>299</v>
       </c>
       <c r="C5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1824</v>
       </c>
@@ -6114,40 +5243,40 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2193</v>
       </c>
       <c r="B7" t="s">
-        <v>179</v>
+        <v>301</v>
       </c>
       <c r="C7" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2265</v>
       </c>
       <c r="B8" t="s">
-        <v>180</v>
+        <v>302</v>
       </c>
       <c r="C8" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2349</v>
       </c>
       <c r="B9" t="s">
+        <v>304</v>
+      </c>
+      <c r="C9" t="s">
         <v>182</v>
       </c>
-      <c r="C9" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2367</v>
       </c>
@@ -6158,62 +5287,62 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2406</v>
       </c>
       <c r="B11" t="s">
-        <v>184</v>
+        <v>305</v>
       </c>
       <c r="C11" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2457</v>
       </c>
       <c r="B12" t="s">
-        <v>185</v>
+        <v>306</v>
       </c>
       <c r="C12" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2490</v>
       </c>
       <c r="B13" t="s">
-        <v>187</v>
+        <v>308</v>
       </c>
       <c r="C13" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2496</v>
       </c>
       <c r="B14" t="s">
-        <v>189</v>
+        <v>310</v>
       </c>
       <c r="C14" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>2577</v>
       </c>
       <c r="B15" t="s">
-        <v>191</v>
+        <v>311</v>
       </c>
       <c r="C15" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>2703</v>
       </c>
@@ -6221,10 +5350,10 @@
         <v>94</v>
       </c>
       <c r="C16" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>2736</v>
       </c>
@@ -6235,7 +5364,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>3471</v>
       </c>
@@ -6246,29 +5375,29 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>3645</v>
       </c>
       <c r="B19" t="s">
-        <v>194</v>
+        <v>313</v>
       </c>
       <c r="C19" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>3675</v>
       </c>
       <c r="B20" t="s">
-        <v>196</v>
+        <v>315</v>
       </c>
       <c r="C20" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>3882</v>
       </c>
@@ -6279,29 +5408,29 @@
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>4032</v>
       </c>
       <c r="B22" t="s">
-        <v>197</v>
+        <v>316</v>
       </c>
       <c r="C22" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>4179</v>
       </c>
       <c r="B23" t="s">
-        <v>199</v>
+        <v>317</v>
       </c>
       <c r="C23" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>4620</v>
       </c>
@@ -6312,7 +5441,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>4971</v>
       </c>
@@ -6323,7 +5452,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>5562</v>
       </c>
@@ -6334,7 +5463,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>5682</v>
       </c>
@@ -6345,18 +5474,18 @@
         <v>84</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>6288</v>
       </c>
       <c r="B28" t="s">
-        <v>201</v>
+        <v>319</v>
       </c>
       <c r="C28" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>6354</v>
       </c>
@@ -6367,7 +5496,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>6414</v>
       </c>
@@ -6378,18 +5507,18 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>6444</v>
       </c>
       <c r="B31" t="s">
-        <v>202</v>
+        <v>320</v>
       </c>
       <c r="C31" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>6549</v>
       </c>
@@ -6400,18 +5529,18 @@
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>6636</v>
       </c>
       <c r="B33" t="s">
-        <v>204</v>
+        <v>322</v>
       </c>
       <c r="C33" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>6642</v>
       </c>
@@ -6422,7 +5551,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>6693</v>
       </c>
@@ -6433,7 +5562,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>6735</v>
       </c>
@@ -6444,7 +5573,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>6741</v>
       </c>
@@ -6455,7 +5584,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>6774</v>
       </c>
@@ -6466,95 +5595,95 @@
         <v>109</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>6852</v>
       </c>
       <c r="B39" t="s">
-        <v>206</v>
+        <v>324</v>
       </c>
       <c r="C39" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>7008</v>
       </c>
       <c r="B40" t="s">
-        <v>208</v>
+        <v>325</v>
       </c>
       <c r="C40" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>7137</v>
       </c>
       <c r="B41" t="s">
-        <v>210</v>
+        <v>327</v>
       </c>
       <c r="C41" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>7284</v>
       </c>
       <c r="B42" t="s">
-        <v>212</v>
+        <v>329</v>
       </c>
       <c r="C42" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>7512</v>
       </c>
       <c r="B43" t="s">
-        <v>213</v>
+        <v>330</v>
       </c>
       <c r="C43" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>7560</v>
       </c>
       <c r="B44" t="s">
-        <v>215</v>
+        <v>331</v>
       </c>
       <c r="C44" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>7764</v>
       </c>
       <c r="B45" t="s">
-        <v>217</v>
+        <v>333</v>
       </c>
       <c r="C45" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>7791</v>
       </c>
       <c r="B46" t="s">
-        <v>219</v>
+        <v>335</v>
       </c>
       <c r="C46" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>7971</v>
       </c>
@@ -6565,7 +5694,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>8391</v>
       </c>
@@ -6573,32 +5702,32 @@
         <v>30</v>
       </c>
       <c r="C48" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>8736</v>
       </c>
       <c r="B49" t="s">
-        <v>221</v>
+        <v>337</v>
       </c>
       <c r="C49" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>9141</v>
       </c>
       <c r="B50" t="s">
-        <v>223</v>
+        <v>339</v>
       </c>
       <c r="C50" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>9396</v>
       </c>
@@ -6609,48 +5738,48 @@
         <v>145</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>9492</v>
       </c>
       <c r="B52" t="s">
-        <v>225</v>
+        <v>340</v>
       </c>
       <c r="C52" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>9501</v>
       </c>
       <c r="B53" t="s">
-        <v>227</v>
+        <v>341</v>
       </c>
       <c r="C53" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>9618</v>
       </c>
       <c r="B54" t="s">
-        <v>229</v>
+        <v>342</v>
       </c>
       <c r="C54" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>9648</v>
       </c>
       <c r="B55" t="s">
-        <v>230</v>
+        <v>343</v>
       </c>
       <c r="C55" t="s">
-        <v>231</v>
+        <v>344</v>
       </c>
     </row>
   </sheetData>
